--- a/AcceptanceTest.xlsx
+++ b/AcceptanceTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user story 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="user story 3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="user story 4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="user story 5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="user story 6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="user story 7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
   <si>
     <t xml:space="preserve">User Story</t>
   </si>
@@ -330,6 +332,57 @@
   </si>
   <si>
     <t xml:space="preserve">User 2 receive message, user 3 cannot receive any message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue #42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an user, I shall search one channel on the webpage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open one client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click search area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type in channel name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The channel “test1” show up on the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is no channel show up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue #75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story #7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When typing a message apears at the bottom of the page indicating the possible actions:  Return to send message Shift + Return to add new line This message should disappear when input field is not in focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focus text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip show up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfocus text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing will show up</t>
   </si>
 </sst>
 </file>
@@ -538,7 +591,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1175,7 +1228,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1184,7 +1237,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="73.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="73.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1874,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2104,11 +2157,6 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2142,4 +2190,432 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="74.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="74.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>